--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.22702178916967</v>
+        <v>0.3881176666666666</v>
       </c>
       <c r="N2">
-        <v>2.22702178916967</v>
+        <v>1.164353</v>
       </c>
       <c r="O2">
-        <v>0.5188404445132958</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="P2">
-        <v>0.5188404445132958</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="Q2">
-        <v>123.7313146391623</v>
+        <v>24.00300138318922</v>
       </c>
       <c r="R2">
-        <v>123.7313146391623</v>
+        <v>216.027012448703</v>
       </c>
       <c r="S2">
-        <v>0.01586981421700816</v>
+        <v>0.002531347961087789</v>
       </c>
       <c r="T2">
-        <v>0.01586981421700816</v>
+        <v>0.002531347961087788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.878577454500976</v>
+        <v>2.230730666666667</v>
       </c>
       <c r="N3">
-        <v>0.878577454500976</v>
+        <v>6.692192</v>
       </c>
       <c r="O3">
-        <v>0.2046865994978</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="P3">
-        <v>0.2046865994978</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="Q3">
-        <v>48.81296805733788</v>
+        <v>137.9587580678435</v>
       </c>
       <c r="R3">
-        <v>48.81296805733788</v>
+        <v>1241.628822610592</v>
       </c>
       <c r="S3">
-        <v>0.006260765406961256</v>
+        <v>0.01454908139920455</v>
       </c>
       <c r="T3">
-        <v>0.006260765406961256</v>
+        <v>0.01454908139920454</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H4">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.519589171330137</v>
+        <v>0.9049766666666667</v>
       </c>
       <c r="N4">
-        <v>0.519589171330137</v>
+        <v>2.71493</v>
       </c>
       <c r="O4">
-        <v>0.1210512972653653</v>
+        <v>0.1871873408177105</v>
       </c>
       <c r="P4">
-        <v>0.1210512972653653</v>
+        <v>0.1871873408177105</v>
       </c>
       <c r="Q4">
-        <v>28.8679040113571</v>
+        <v>55.96796550982555</v>
       </c>
       <c r="R4">
-        <v>28.8679040113571</v>
+        <v>503.71168958843</v>
       </c>
       <c r="S4">
-        <v>0.003702605721362468</v>
+        <v>0.005902361672101219</v>
       </c>
       <c r="T4">
-        <v>0.003702605721362468</v>
+        <v>0.005902361672101218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H5">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.667117269184561</v>
+        <v>0.6326649999999999</v>
       </c>
       <c r="N5">
-        <v>0.667117269184561</v>
+        <v>1.897995</v>
       </c>
       <c r="O5">
-        <v>0.155421658723539</v>
+        <v>0.1308618037795857</v>
       </c>
       <c r="P5">
-        <v>0.155421658723539</v>
+        <v>0.1308618037795857</v>
       </c>
       <c r="Q5">
-        <v>37.06443158127759</v>
+        <v>39.12694570313833</v>
       </c>
       <c r="R5">
-        <v>37.06443158127759</v>
+        <v>352.142511328245</v>
       </c>
       <c r="S5">
-        <v>0.004753894719128056</v>
+        <v>0.0041263137325234</v>
       </c>
       <c r="T5">
-        <v>0.004753894719128056</v>
+        <v>0.004126313732523398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1361.3754564882</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H6">
-        <v>1361.3754564882</v>
+        <v>185.533951</v>
       </c>
       <c r="I6">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J6">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.22702178916967</v>
+        <v>0.678114</v>
       </c>
       <c r="N6">
-        <v>2.22702178916967</v>
+        <v>2.034342</v>
       </c>
       <c r="O6">
-        <v>0.5188404445132958</v>
+        <v>0.1402625737288928</v>
       </c>
       <c r="P6">
-        <v>0.5188404445132958</v>
+        <v>0.1402625737288928</v>
       </c>
       <c r="Q6">
-        <v>3031.812804840028</v>
+        <v>41.937723216138</v>
       </c>
       <c r="R6">
-        <v>3031.812804840028</v>
+        <v>377.439508945242</v>
       </c>
       <c r="S6">
-        <v>0.3888611875972824</v>
+        <v>0.004422737326098919</v>
       </c>
       <c r="T6">
-        <v>0.3888611875972824</v>
+        <v>0.004422737326098918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H7">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.878577454500976</v>
+        <v>0.3881176666666666</v>
       </c>
       <c r="N7">
-        <v>0.878577454500976</v>
+        <v>1.164353</v>
       </c>
       <c r="O7">
-        <v>0.2046865994978</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="P7">
-        <v>0.2046865994978</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="Q7">
-        <v>1196.073783181507</v>
+        <v>528.3752677091189</v>
       </c>
       <c r="R7">
-        <v>1196.073783181507</v>
+        <v>4755.37740938207</v>
       </c>
       <c r="S7">
-        <v>0.1534087695122313</v>
+        <v>0.05572226719702759</v>
       </c>
       <c r="T7">
-        <v>0.1534087695122313</v>
+        <v>0.05572226719702759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H8">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.519589171330137</v>
+        <v>2.230730666666667</v>
       </c>
       <c r="N8">
-        <v>0.519589171330137</v>
+        <v>6.692192</v>
       </c>
       <c r="O8">
-        <v>0.1210512972653653</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="P8">
-        <v>0.1210512972653653</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="Q8">
-        <v>707.3559453058908</v>
+        <v>3036.870038176416</v>
       </c>
       <c r="R8">
-        <v>707.3559453058908</v>
+        <v>27331.83034358774</v>
       </c>
       <c r="S8">
-        <v>0.09072567821685176</v>
+        <v>0.3202672306060194</v>
       </c>
       <c r="T8">
-        <v>0.09072567821685176</v>
+        <v>0.3202672306060194</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H9">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.667117269184561</v>
+        <v>0.9049766666666667</v>
       </c>
       <c r="N9">
-        <v>0.667117269184561</v>
+        <v>2.71493</v>
       </c>
       <c r="O9">
-        <v>0.155421658723539</v>
+        <v>0.1871873408177105</v>
       </c>
       <c r="P9">
-        <v>0.155421658723539</v>
+        <v>0.1871873408177105</v>
       </c>
       <c r="Q9">
-        <v>908.1970768672932</v>
+        <v>1232.01629193339</v>
       </c>
       <c r="R9">
-        <v>908.1970768672932</v>
+        <v>11088.14662740051</v>
       </c>
       <c r="S9">
-        <v>0.1164856198638658</v>
+        <v>0.1299279985375793</v>
       </c>
       <c r="T9">
-        <v>0.1164856198638658</v>
+        <v>0.1299279985375794</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>241.126779126896</v>
+        <v>1361.379069</v>
       </c>
       <c r="H10">
-        <v>241.126779126896</v>
+        <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J10">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.22702178916967</v>
+        <v>0.6326649999999999</v>
       </c>
       <c r="N10">
-        <v>2.22702178916967</v>
+        <v>1.897995</v>
       </c>
       <c r="O10">
-        <v>0.5188404445132958</v>
+        <v>0.1308618037795857</v>
       </c>
       <c r="P10">
-        <v>0.5188404445132958</v>
+        <v>0.1308618037795857</v>
       </c>
       <c r="Q10">
-        <v>536.9945910678998</v>
+        <v>861.2968886888848</v>
       </c>
       <c r="R10">
-        <v>536.9945910678998</v>
+        <v>7751.671998199964</v>
       </c>
       <c r="S10">
-        <v>0.06887508162859635</v>
+        <v>0.09083206255201161</v>
       </c>
       <c r="T10">
-        <v>0.06887508162859635</v>
+        <v>0.09083206255201162</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>241.126779126896</v>
+        <v>1361.379069</v>
       </c>
       <c r="H11">
-        <v>241.126779126896</v>
+        <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J11">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.878577454500976</v>
+        <v>0.678114</v>
       </c>
       <c r="N11">
-        <v>0.878577454500976</v>
+        <v>2.034342</v>
       </c>
       <c r="O11">
-        <v>0.2046865994978</v>
+        <v>0.1402625737288928</v>
       </c>
       <c r="P11">
-        <v>0.2046865994978</v>
+        <v>0.1402625737288928</v>
       </c>
       <c r="Q11">
-        <v>211.8485518173273</v>
+        <v>923.1702059958659</v>
       </c>
       <c r="R11">
-        <v>211.8485518173273</v>
+        <v>8308.531853962793</v>
       </c>
       <c r="S11">
-        <v>0.02717175655401228</v>
+        <v>0.09735720051748525</v>
       </c>
       <c r="T11">
-        <v>0.02717175655401228</v>
+        <v>0.09735720051748527</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H12">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I12">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J12">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.519589171330137</v>
+        <v>0.3881176666666666</v>
       </c>
       <c r="N12">
-        <v>0.519589171330137</v>
+        <v>1.164353</v>
       </c>
       <c r="O12">
-        <v>0.1210512972653653</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="P12">
-        <v>0.1210512972653653</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="Q12">
-        <v>125.2868633520489</v>
+        <v>97.42025659064733</v>
       </c>
       <c r="R12">
-        <v>125.2868633520489</v>
+        <v>876.782309315826</v>
       </c>
       <c r="S12">
-        <v>0.01606932934501767</v>
+        <v>0.01027390549842224</v>
       </c>
       <c r="T12">
-        <v>0.01606932934501767</v>
+        <v>0.01027390549842224</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H13">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I13">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J13">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.667117269184561</v>
+        <v>2.230730666666667</v>
       </c>
       <c r="N13">
-        <v>0.667117269184561</v>
+        <v>6.692192</v>
       </c>
       <c r="O13">
-        <v>0.155421658723539</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="P13">
-        <v>0.155421658723539</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="Q13">
-        <v>160.8598384184037</v>
+        <v>559.9290436782293</v>
       </c>
       <c r="R13">
-        <v>160.8598384184037</v>
+        <v>5039.361393104064</v>
       </c>
       <c r="S13">
-        <v>0.020631929419992</v>
+        <v>0.05904991715166906</v>
       </c>
       <c r="T13">
-        <v>0.020631929419992</v>
+        <v>0.05904991715166905</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>133.49876153682</v>
+        <v>251.007014</v>
       </c>
       <c r="H14">
-        <v>133.49876153682</v>
+        <v>753.021042</v>
       </c>
       <c r="I14">
-        <v>0.07349538945050349</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J14">
-        <v>0.07349538945050349</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.22702178916967</v>
+        <v>0.9049766666666667</v>
       </c>
       <c r="N14">
-        <v>2.22702178916967</v>
+        <v>2.71493</v>
       </c>
       <c r="O14">
-        <v>0.5188404445132958</v>
+        <v>0.1871873408177105</v>
       </c>
       <c r="P14">
-        <v>0.5188404445132958</v>
+        <v>0.1871873408177105</v>
       </c>
       <c r="Q14">
-        <v>297.3046507696641</v>
+        <v>227.1554908396733</v>
       </c>
       <c r="R14">
-        <v>297.3046507696641</v>
+        <v>2044.39941755706</v>
       </c>
       <c r="S14">
-        <v>0.03813238053217703</v>
+        <v>0.02395573701002315</v>
       </c>
       <c r="T14">
-        <v>0.03813238053217703</v>
+        <v>0.02395573701002315</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>133.49876153682</v>
+        <v>251.007014</v>
       </c>
       <c r="H15">
-        <v>133.49876153682</v>
+        <v>753.021042</v>
       </c>
       <c r="I15">
-        <v>0.07349538945050349</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J15">
-        <v>0.07349538945050349</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.878577454500976</v>
+        <v>0.6326649999999999</v>
       </c>
       <c r="N15">
-        <v>0.878577454500976</v>
+        <v>1.897995</v>
       </c>
       <c r="O15">
-        <v>0.2046865994978</v>
+        <v>0.1308618037795857</v>
       </c>
       <c r="P15">
-        <v>0.2046865994978</v>
+        <v>0.1308618037795857</v>
       </c>
       <c r="Q15">
-        <v>117.2890020900521</v>
+        <v>158.80335251231</v>
       </c>
       <c r="R15">
-        <v>117.2890020900521</v>
+        <v>1429.23017261079</v>
       </c>
       <c r="S15">
-        <v>0.01504352134539005</v>
+        <v>0.01674734489152166</v>
       </c>
       <c r="T15">
-        <v>0.01504352134539005</v>
+        <v>0.01674734489152166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>133.49876153682</v>
+        <v>251.007014</v>
       </c>
       <c r="H16">
-        <v>133.49876153682</v>
+        <v>753.021042</v>
       </c>
       <c r="I16">
-        <v>0.07349538945050349</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J16">
-        <v>0.07349538945050349</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.519589171330137</v>
+        <v>0.678114</v>
       </c>
       <c r="N16">
-        <v>0.519589171330137</v>
+        <v>2.034342</v>
       </c>
       <c r="O16">
-        <v>0.1210512972653653</v>
+        <v>0.1402625737288928</v>
       </c>
       <c r="P16">
-        <v>0.1210512972653653</v>
+        <v>0.1402625737288928</v>
       </c>
       <c r="Q16">
-        <v>69.36451088051588</v>
+        <v>170.211370291596</v>
       </c>
       <c r="R16">
-        <v>69.36451088051588</v>
+        <v>1531.902332624364</v>
       </c>
       <c r="S16">
-        <v>0.008896712236006687</v>
+        <v>0.01795043037590086</v>
       </c>
       <c r="T16">
-        <v>0.008896712236006687</v>
+        <v>0.01795043037590086</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H17">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.667117269184561</v>
+        <v>0.3881176666666666</v>
       </c>
       <c r="N17">
-        <v>0.667117269184561</v>
+        <v>1.164353</v>
       </c>
       <c r="O17">
-        <v>0.155421658723539</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="P17">
-        <v>0.155421658723539</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="Q17">
-        <v>89.05932923596428</v>
+        <v>100.9228308127359</v>
       </c>
       <c r="R17">
-        <v>89.05932923596428</v>
+        <v>908.305477314623</v>
       </c>
       <c r="S17">
-        <v>0.01142277533692974</v>
+        <v>0.01064328572609044</v>
       </c>
       <c r="T17">
-        <v>0.01142277533692974</v>
+        <v>0.01064328572609044</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,57 +1526,57 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>24.8635304977225</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H18">
-        <v>24.8635304977225</v>
+        <v>780.094591</v>
       </c>
       <c r="I18">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J18">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.22702178916967</v>
+        <v>2.230730666666667</v>
       </c>
       <c r="N18">
-        <v>2.22702178916967</v>
+        <v>6.692192</v>
       </c>
       <c r="O18">
-        <v>0.5188404445132958</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="P18">
-        <v>0.5188404445132958</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="Q18">
-        <v>55.37162417411263</v>
+        <v>580.0603090148303</v>
       </c>
       <c r="R18">
-        <v>55.37162417411263</v>
+        <v>5220.542781133472</v>
       </c>
       <c r="S18">
-        <v>0.007101980538231796</v>
+        <v>0.06117295321080172</v>
       </c>
       <c r="T18">
-        <v>0.007101980538231796</v>
+        <v>0.06117295321080172</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>24.8635304977225</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H19">
-        <v>24.8635304977225</v>
+        <v>780.094591</v>
       </c>
       <c r="I19">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J19">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.878577454500976</v>
+        <v>0.9049766666666667</v>
       </c>
       <c r="N19">
-        <v>0.878577454500976</v>
+        <v>2.71493</v>
       </c>
       <c r="O19">
-        <v>0.2046865994978</v>
+        <v>0.1871873408177105</v>
       </c>
       <c r="P19">
-        <v>0.2046865994978</v>
+        <v>0.1871873408177105</v>
       </c>
       <c r="Q19">
-        <v>21.84453733459642</v>
+        <v>235.3224675492922</v>
       </c>
       <c r="R19">
-        <v>21.84453733459642</v>
+        <v>2117.90220794363</v>
       </c>
       <c r="S19">
-        <v>0.002801786679205133</v>
+        <v>0.02481702345966791</v>
       </c>
       <c r="T19">
-        <v>0.002801786679205133</v>
+        <v>0.02481702345966791</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.8635304977225</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H20">
-        <v>24.8635304977225</v>
+        <v>780.094591</v>
       </c>
       <c r="I20">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J20">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.519589171330137</v>
+        <v>0.6326649999999999</v>
       </c>
       <c r="N20">
-        <v>0.519589171330137</v>
+        <v>1.897995</v>
       </c>
       <c r="O20">
-        <v>0.1210512972653653</v>
+        <v>0.1308618037795857</v>
       </c>
       <c r="P20">
-        <v>0.1210512972653653</v>
+        <v>0.1308618037795857</v>
       </c>
       <c r="Q20">
-        <v>12.91882120765322</v>
+        <v>164.5128481383383</v>
       </c>
       <c r="R20">
-        <v>12.91882120765322</v>
+        <v>1480.615633245045</v>
       </c>
       <c r="S20">
-        <v>0.001656971746126675</v>
+        <v>0.01734946626297267</v>
       </c>
       <c r="T20">
-        <v>0.001656971746126675</v>
+        <v>0.01734946626297267</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.8635304977225</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H21">
-        <v>24.8635304977225</v>
+        <v>780.094591</v>
       </c>
       <c r="I21">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J21">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.667117269184561</v>
+        <v>0.678114</v>
       </c>
       <c r="N21">
-        <v>0.667117269184561</v>
+        <v>2.034342</v>
       </c>
       <c r="O21">
-        <v>0.155421658723539</v>
+        <v>0.1402625737288928</v>
       </c>
       <c r="P21">
-        <v>0.155421658723539</v>
+        <v>0.1402625737288928</v>
       </c>
       <c r="Q21">
-        <v>16.58689056792769</v>
+        <v>176.331021160458</v>
       </c>
       <c r="R21">
-        <v>16.58689056792769</v>
+        <v>1586.979190444122</v>
       </c>
       <c r="S21">
-        <v>0.00212743938362344</v>
+        <v>0.01859580657290897</v>
       </c>
       <c r="T21">
-        <v>0.00212743938362344</v>
+        <v>0.01859580657290897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H22">
+        <v>81.231988</v>
+      </c>
+      <c r="I22">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J22">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.3881176666666666</v>
+      </c>
+      <c r="N22">
+        <v>1.164353</v>
+      </c>
+      <c r="O22">
+        <v>0.08027910179751364</v>
+      </c>
+      <c r="P22">
+        <v>0.08027910179751364</v>
+      </c>
+      <c r="Q22">
+        <v>10.50918988041822</v>
+      </c>
+      <c r="R22">
+        <v>94.582708923764</v>
+      </c>
+      <c r="S22">
+        <v>0.00110829541488559</v>
+      </c>
+      <c r="T22">
+        <v>0.00110829541488559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H23">
+        <v>81.231988</v>
+      </c>
+      <c r="I23">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J23">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.230730666666667</v>
+      </c>
+      <c r="N23">
+        <v>6.692192</v>
+      </c>
+      <c r="O23">
+        <v>0.4614091798762974</v>
+      </c>
+      <c r="P23">
+        <v>0.4614091798762974</v>
+      </c>
+      <c r="Q23">
+        <v>60.40222891529956</v>
+      </c>
+      <c r="R23">
+        <v>543.6200602376961</v>
+      </c>
+      <c r="S23">
+        <v>0.006369997508602654</v>
+      </c>
+      <c r="T23">
+        <v>0.006369997508602654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H24">
+        <v>81.231988</v>
+      </c>
+      <c r="I24">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J24">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.9049766666666667</v>
+      </c>
+      <c r="N24">
+        <v>2.71493</v>
+      </c>
+      <c r="O24">
+        <v>0.1871873408177105</v>
+      </c>
+      <c r="P24">
+        <v>0.1871873408177105</v>
+      </c>
+      <c r="Q24">
+        <v>24.50435124231556</v>
+      </c>
+      <c r="R24">
+        <v>220.53916118084</v>
+      </c>
+      <c r="S24">
+        <v>0.002584220138338918</v>
+      </c>
+      <c r="T24">
+        <v>0.002584220138338918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H25">
+        <v>81.231988</v>
+      </c>
+      <c r="I25">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J25">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6326649999999999</v>
+      </c>
+      <c r="N25">
+        <v>1.897995</v>
+      </c>
+      <c r="O25">
+        <v>0.1308618037795857</v>
+      </c>
+      <c r="P25">
+        <v>0.1308618037795857</v>
+      </c>
+      <c r="Q25">
+        <v>17.13087856267333</v>
+      </c>
+      <c r="R25">
+        <v>154.17790706406</v>
+      </c>
+      <c r="S25">
+        <v>0.001806616340556322</v>
+      </c>
+      <c r="T25">
+        <v>0.001806616340556322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H26">
+        <v>81.231988</v>
+      </c>
+      <c r="I26">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J26">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.678114</v>
+      </c>
+      <c r="N26">
+        <v>2.034342</v>
+      </c>
+      <c r="O26">
+        <v>0.1402625737288928</v>
+      </c>
+      <c r="P26">
+        <v>0.1402625737288928</v>
+      </c>
+      <c r="Q26">
+        <v>18.361516103544</v>
+      </c>
+      <c r="R26">
+        <v>165.253644931896</v>
+      </c>
+      <c r="S26">
+        <v>0.001936398936498795</v>
+      </c>
+      <c r="T26">
+        <v>0.001936398936498795</v>
       </c>
     </row>
   </sheetData>
